--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF84BD-3C8C-4546-863D-7A704D23BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D1A8C-A734-4376-8134-FDF9CF812E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23070" yWindow="2055" windowWidth="22905" windowHeight="16875" xr2:uid="{D34B6A0E-BD75-4196-AE8C-3E013A62F06D}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{D34B6A0E-BD75-4196-AE8C-3E013A62F06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Price</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>NCI</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -260,8 +263,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,14 +309,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -327,17 +330,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -780,77 +778,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96B72F-94E0-4E69-B93D-80B7A904758A}">
-  <dimension ref="J2:L8"/>
+  <dimension ref="J2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>95.98</v>
-      </c>
-    </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+        <v>96.12</v>
+      </c>
+    </row>
+    <row r="3" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>8082</v>
+        <v>7980.4181639999997</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="5">
         <f>+K2*K3</f>
-        <v>775710.36</v>
-      </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+        <v>767077.79392367997</v>
+      </c>
+    </row>
+    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="5">
-        <v>10049</v>
+        <v>9311</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="5">
-        <v>40470</v>
+        <f>5595+36520+4085</f>
+        <v>46200</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="5">
         <f>+K4-K5+K6</f>
-        <v>806131.36</v>
-      </c>
-    </row>
-    <row r="8" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="K8">
-        <f>+K7/18000</f>
-        <v>44.785075555555558</v>
+        <v>803966.79392367997</v>
       </c>
     </row>
   </sheetData>
@@ -869,21 +862,21 @@
       <selection pane="bottomRight" activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="12" width="9.1796875" style="2"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -939,7 +932,7 @@
         <v>46783</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -977,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -995,7 +988,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1013,7 +1006,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1031,7 +1024,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1049,7 +1042,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
@@ -1060,20 +1053,19 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="14">
+      <c r="J8" s="5">
         <f>SUM(J4:J7)</f>
         <v>5214</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="14"/>
-      <c r="T8" s="14">
+      <c r="T8" s="5">
         <f>SUM(T4:T7)</f>
         <v>5214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1084,18 +1076,17 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="14">
+      <c r="J9" s="5">
         <v>5402</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="14"/>
-      <c r="T9" s="14">
+      <c r="T9" s="5">
         <v>5402</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>10616</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1141,7 +1132,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
@@ -1157,14 +1148,14 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="S12" s="15">
+      <c r="S12" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="13">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1196,7 @@
         <v>642637</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1237,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1255,40 +1246,40 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <f>+G14+G15</f>
+        <f t="shared" ref="G16:M16" si="0">+G14+G15</f>
         <v>152301</v>
       </c>
       <c r="H16" s="8">
-        <f>+H14+H15</f>
+        <f t="shared" si="0"/>
         <v>161632</v>
       </c>
       <c r="I16" s="8">
-        <f>+I14+I15</f>
+        <f t="shared" si="0"/>
         <v>160804</v>
       </c>
       <c r="J16" s="8">
-        <f>+J14+J15</f>
+        <f t="shared" si="0"/>
         <v>173388</v>
       </c>
       <c r="K16" s="8">
-        <f>+K14+K15</f>
+        <f t="shared" si="0"/>
         <v>161508</v>
       </c>
       <c r="L16" s="8">
-        <f>+L14+L15</f>
+        <f t="shared" si="0"/>
         <v>169335</v>
       </c>
       <c r="M16" s="8">
-        <f>+M14+M15</f>
+        <f t="shared" si="0"/>
         <v>169588</v>
       </c>
       <c r="N16" s="8"/>
       <c r="R16" s="7">
-        <f t="shared" ref="R16:S16" si="0">+R14+R15</f>
+        <f t="shared" ref="R16:S16" si="1">+R14+R15</f>
         <v>572754</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>611289</v>
       </c>
       <c r="T16" s="7">
@@ -1296,7 +1287,7 @@
         <v>648125</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1328,7 @@
         <v>490142</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1346,40 +1337,40 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f>+G16-G17</f>
+        <f t="shared" ref="G18:M18" si="2">+G16-G17</f>
         <v>37017</v>
       </c>
       <c r="H18" s="6">
-        <f>+H16-H17</f>
+        <f t="shared" si="2"/>
         <v>39782</v>
       </c>
       <c r="I18" s="6">
-        <f>+I16-I17</f>
+        <f t="shared" si="2"/>
         <v>39621</v>
       </c>
       <c r="J18" s="6">
-        <f>+J16-J17</f>
+        <f t="shared" si="2"/>
         <v>41563</v>
       </c>
       <c r="K18" s="6">
-        <f>+K16-K17</f>
+        <f t="shared" si="2"/>
         <v>40077</v>
       </c>
       <c r="L18" s="6">
-        <f>+L16-L17</f>
+        <f t="shared" si="2"/>
         <v>42525</v>
       </c>
       <c r="M18" s="6">
-        <f>+M16-M17</f>
+        <f t="shared" si="2"/>
         <v>42248</v>
       </c>
       <c r="N18" s="6"/>
       <c r="R18" s="5">
-        <f t="shared" ref="R18:S18" si="1">+R16-R17</f>
+        <f t="shared" ref="R18:S18" si="3">+R16-R17</f>
         <v>143754</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>147568</v>
       </c>
       <c r="T18" s="5">
@@ -1387,7 +1378,7 @@
         <v>157983</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1428,44 +1419,44 @@
         <v>130971</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="6">
-        <f>+G18-G19</f>
+        <f t="shared" ref="G20:M20" si="4">+G18-G19</f>
         <v>6240</v>
       </c>
       <c r="H20" s="6">
-        <f>+H18-H19</f>
+        <f t="shared" si="4"/>
         <v>7316</v>
       </c>
       <c r="I20" s="6">
-        <f>+I18-I19</f>
+        <f t="shared" si="4"/>
         <v>6202</v>
       </c>
       <c r="J20" s="6">
-        <f>+J18-J19</f>
+        <f t="shared" si="4"/>
         <v>7254</v>
       </c>
       <c r="K20" s="6">
-        <f>+K18-K19</f>
+        <f t="shared" si="4"/>
         <v>6841</v>
       </c>
       <c r="L20" s="6">
-        <f>+L18-L19</f>
+        <f t="shared" si="4"/>
         <v>7940</v>
       </c>
       <c r="M20" s="6">
-        <f>+M18-M19</f>
+        <f t="shared" si="4"/>
         <v>6708</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:S20" si="2">+R18-R19</f>
+        <f t="shared" ref="R20:S20" si="5">+R18-R19</f>
         <v>25942</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20428</v>
       </c>
       <c r="T20" s="5">
@@ -1473,7 +1464,7 @@
         <v>27012</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1509,7 @@
         <v>-5164</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1535,7 +1526,7 @@
         <v>10727</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" ref="I22:J22" si="3">+I20+I21</f>
+        <f t="shared" ref="I22" si="6">+I20+I21</f>
         <v>5665</v>
       </c>
       <c r="J22" s="6">
@@ -1568,7 +1559,7 @@
         <v>21848</v>
       </c>
     </row>
-    <row r="23" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1607,7 @@
         <v>6337</v>
       </c>
     </row>
-    <row r="24" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1625,11 +1616,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:M24" si="4">+G22-G23</f>
+        <f t="shared" ref="G24:M24" si="7">+G22-G23</f>
         <v>1673</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7891</v>
       </c>
       <c r="I24" s="6">
@@ -1641,24 +1632,24 @@
         <v>554</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5104</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4501</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4714</v>
       </c>
       <c r="N24" s="6"/>
       <c r="R24" s="5">
-        <f t="shared" ref="R24:S24" si="5">+R22-R23</f>
+        <f t="shared" ref="R24:S24" si="8">+R22-R23</f>
         <v>16083</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11680</v>
       </c>
       <c r="T24" s="5">
@@ -1666,36 +1657,36 @@
         <v>15511</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="9">
-        <f>+G24/G26</f>
+        <f t="shared" ref="G25:M25" si="9">+G24/G26</f>
         <v>0.20623767258382644</v>
       </c>
       <c r="H25" s="9">
-        <f>+H24/H26</f>
+        <f t="shared" si="9"/>
         <v>0.97323630981746423</v>
       </c>
       <c r="I25" s="9">
-        <f>+I24/I26</f>
+        <f t="shared" si="9"/>
         <v>0.66498150431565972</v>
       </c>
       <c r="J25" s="9">
-        <f>+J24/J26</f>
+        <f t="shared" si="9"/>
         <v>6.8327577701036007E-2</v>
       </c>
       <c r="K25" s="9">
-        <f>+K24/K26</f>
+        <f t="shared" si="9"/>
         <v>0.63137060860959926</v>
       </c>
       <c r="L25" s="9">
-        <f>+L24/L26</f>
+        <f t="shared" si="9"/>
         <v>0.55698552159386217</v>
       </c>
       <c r="M25" s="9">
-        <f>+M24/M26</f>
+        <f t="shared" si="9"/>
         <v>0.58327146745854985</v>
       </c>
       <c r="R25" s="1">
@@ -1703,15 +1694,15 @@
         <v>1.9112299465240641</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ref="S25:T25" si="6">+S24/S26</f>
+        <f t="shared" ref="S25:T25" si="10">+S24/S26</f>
         <v>1.4240429163618629</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9130488406512087</v>
       </c>
     </row>
-    <row r="26" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1752,149 +1743,149 @@
         <v>8108</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <f>K16/G16-1</f>
         <v>6.045265625307783E-2</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <f>L16/H16-1</f>
         <v>4.765764205107903E-2</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <f>M16/I16-1</f>
         <v>5.4625506828188453E-2</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="10">
         <f>+S16/R16-1</f>
         <v>6.7280193590965709E-2</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="10">
         <f>+T16/S16-1</f>
         <v>6.02595499019285E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="13">
-        <f t="shared" ref="G29:I29" si="7">+G18/G16</f>
+      <c r="G29" s="12">
+        <f t="shared" ref="G29:I29" si="11">+G18/G16</f>
         <v>0.24305158863040952</v>
       </c>
-      <c r="H29" s="13">
-        <f t="shared" si="7"/>
+      <c r="H29" s="12">
+        <f t="shared" si="11"/>
         <v>0.24612700455355374</v>
       </c>
-      <c r="I29" s="13">
-        <f t="shared" si="7"/>
+      <c r="I29" s="12">
+        <f t="shared" si="11"/>
         <v>0.24639312454914056</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f>+K18/K16</f>
         <v>0.24814250687272457</v>
       </c>
-      <c r="L29" s="13">
-        <f t="shared" ref="L29:M29" si="8">+L18/L16</f>
+      <c r="L29" s="12">
+        <f t="shared" ref="L29:M29" si="12">+L18/L16</f>
         <v>0.25112941801753919</v>
       </c>
-      <c r="M29" s="13">
-        <f t="shared" si="8"/>
+      <c r="M29" s="12">
+        <f t="shared" si="12"/>
         <v>0.24912140009906361</v>
       </c>
-      <c r="R29" s="13">
-        <f t="shared" ref="R29:T29" si="9">+R18/R16</f>
+      <c r="R29" s="12">
+        <f t="shared" ref="R29:T29" si="13">+R18/R16</f>
         <v>0.25098733487675334</v>
       </c>
-      <c r="S29" s="13">
-        <f t="shared" si="9"/>
+      <c r="S29" s="12">
+        <f t="shared" si="13"/>
         <v>0.24140463839525986</v>
       </c>
-      <c r="T29" s="13">
-        <f t="shared" si="9"/>
+      <c r="T29" s="12">
+        <f t="shared" si="13"/>
         <v>0.24375390549662487</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="13">
-        <f t="shared" ref="G30:M30" si="10">+G20/G16</f>
+      <c r="G30" s="12">
+        <f t="shared" ref="G30:M30" si="14">+G20/G16</f>
         <v>4.0971497232454156E-2</v>
       </c>
-      <c r="H30" s="13">
-        <f t="shared" si="10"/>
+      <c r="H30" s="12">
+        <f t="shared" si="14"/>
         <v>4.5263314195208869E-2</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" si="10"/>
+      <c r="I30" s="12">
+        <f t="shared" si="14"/>
         <v>3.8568692321086541E-2</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13">
-        <f t="shared" si="10"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
+        <f t="shared" si="14"/>
         <v>4.2357034945637369E-2</v>
       </c>
-      <c r="L30" s="13">
-        <f t="shared" si="10"/>
+      <c r="L30" s="12">
+        <f t="shared" si="14"/>
         <v>4.6889302270646943E-2</v>
       </c>
-      <c r="M30" s="13">
-        <f t="shared" si="10"/>
+      <c r="M30" s="12">
+        <f t="shared" si="14"/>
         <v>3.9554685473028754E-2</v>
       </c>
-      <c r="R30" s="13">
-        <f t="shared" ref="R30:T30" si="11">+R20/R16</f>
+      <c r="R30" s="12">
+        <f t="shared" ref="R30:S30" si="15">+R20/R16</f>
         <v>4.5293441861602016E-2</v>
       </c>
-      <c r="S30" s="13">
-        <f t="shared" si="11"/>
+      <c r="S30" s="12">
+        <f t="shared" si="15"/>
         <v>3.3417908714208827E-2</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="12">
         <f>+T20/T16</f>
         <v>4.16771456123433E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <f>+G23/G22</f>
         <v>0.37760416666666669</v>
       </c>
-      <c r="H31" s="13">
-        <f t="shared" ref="H31:N31" si="12">+H23/H22</f>
+      <c r="H31" s="12">
+        <f t="shared" ref="H31:M31" si="16">+H23/H22</f>
         <v>0.26437960287125944</v>
       </c>
-      <c r="I31" s="13">
-        <f t="shared" si="12"/>
+      <c r="I31" s="12">
+        <f t="shared" si="16"/>
         <v>4.8014121800529566E-2</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13">
-        <f t="shared" si="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12">
+        <f t="shared" si="16"/>
         <v>0.27448471926083867</v>
       </c>
-      <c r="L31" s="13">
-        <f t="shared" si="12"/>
+      <c r="L31" s="12">
+        <f t="shared" si="16"/>
         <v>0.27555126347980041</v>
       </c>
-      <c r="M31" s="13">
-        <f t="shared" si="12"/>
+      <c r="M31" s="12">
+        <f t="shared" si="16"/>
         <v>0.22695965890455888</v>
       </c>
-      <c r="N31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1919,7 +1910,7 @@
         <v>-30590</v>
       </c>
     </row>
-    <row r="34" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1944,11 +1935,11 @@
       </c>
       <c r="N34" s="6"/>
       <c r="T34" s="5">
-        <f t="shared" ref="T34:T51" si="13">+J34</f>
+        <f t="shared" ref="T34:T50" si="17">+J34</f>
         <v>9867</v>
       </c>
     </row>
-    <row r="35" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1973,11 +1964,11 @@
       </c>
       <c r="N35" s="6"/>
       <c r="T35" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8796</v>
       </c>
     </row>
-    <row r="36" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -2002,11 +1993,11 @@
       </c>
       <c r="N36" s="6"/>
       <c r="T36" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>54892</v>
       </c>
     </row>
-    <row r="37" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
@@ -2017,7 +2008,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="10">
+      <c r="J37" s="6">
         <v>3322</v>
       </c>
       <c r="K37" s="6">
@@ -2031,11 +2022,11 @@
       </c>
       <c r="N37" s="6"/>
       <c r="T37" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3322</v>
       </c>
     </row>
-    <row r="38" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
@@ -2045,26 +2036,26 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
         <v>110810</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="6">
         <v>111498</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="6">
         <v>113818</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="6">
         <v>116598</v>
       </c>
       <c r="N38" s="8"/>
       <c r="T38" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>110810</v>
       </c>
     </row>
-    <row r="39" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
@@ -2092,14 +2083,14 @@
         <v>19928</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="O39" s="11"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="1"/>
       <c r="T39" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19528</v>
       </c>
     </row>
-    <row r="40" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>33</v>
       </c>
@@ -2124,11 +2115,11 @@
       </c>
       <c r="N40" s="6"/>
       <c r="T40" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>28113</v>
       </c>
     </row>
-    <row r="41" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
@@ -2153,11 +2144,11 @@
       </c>
       <c r="N41" s="6"/>
       <c r="T41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>17071</v>
       </c>
     </row>
-    <row r="42" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>31</v>
       </c>
@@ -2190,10 +2181,10 @@
         <v>252399</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2214,11 +2205,11 @@
         <v>40470</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>40457</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>40</v>
       </c>
@@ -2235,11 +2226,11 @@
         <v>62863</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>56812</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
@@ -2256,11 +2247,11 @@
         <v>1674</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>42</v>
       </c>
@@ -2277,11 +2268,11 @@
         <v>28117</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>28759</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
@@ -2302,11 +2293,11 @@
         <v>14531</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>14936</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>39</v>
       </c>
@@ -2327,11 +2318,11 @@
         <v>21279</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20864</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>43</v>
       </c>
@@ -2352,11 +2343,11 @@
         <v>94465</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>90571</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>44</v>
       </c>
@@ -2381,11 +2372,11 @@
         <v>252399</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>55</v>
       </c>
@@ -2394,15 +2385,15 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
-        <f t="shared" ref="G53:J53" si="14">+G24</f>
+        <f t="shared" ref="G53:I53" si="18">+G24</f>
         <v>1673</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7891</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5393</v>
       </c>
       <c r="J53" s="6">
@@ -2427,7 +2418,7 @@
         <v>15511</v>
       </c>
     </row>
-    <row r="54" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
@@ -2451,7 +2442,7 @@
         <v>16270</v>
       </c>
     </row>
-    <row r="55" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>57</v>
       </c>
@@ -2471,11 +2462,11 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="T55" s="5">
-        <f t="shared" ref="T55:T59" si="15">SUM(G55:J55)</f>
+        <f t="shared" ref="T55:T59" si="19">SUM(G55:J55)</f>
         <v>11853</v>
       </c>
     </row>
-    <row r="56" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>58</v>
       </c>
@@ -2495,11 +2486,11 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="T56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3193</v>
       </c>
     </row>
-    <row r="57" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
@@ -2519,11 +2510,11 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="T57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-175</v>
       </c>
     </row>
-    <row r="58" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>60</v>
       </c>
@@ -2543,11 +2534,11 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="T58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2642</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>61</v>
       </c>
@@ -2567,11 +2558,11 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="T59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1943</v>
       </c>
     </row>
-    <row r="60" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
@@ -2601,12 +2592,12 @@
         <v>35726</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>63</v>
       </c>
@@ -2621,11 +2612,11 @@
         <v>-16857</v>
       </c>
       <c r="T62" s="5">
-        <f t="shared" ref="T62:T64" si="16">SUM(G62:J62)</f>
+        <f t="shared" ref="T62:T64" si="20">SUM(G62:J62)</f>
         <v>-20356</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
@@ -2636,11 +2627,11 @@
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>60</v>
       </c>
@@ -2650,11 +2641,11 @@
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1057</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>64</v>
       </c>
@@ -2669,12 +2660,12 @@
         <v>-21287</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>4</v>
       </c>
@@ -2694,11 +2685,11 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="T67" s="5">
-        <f t="shared" ref="T67:T73" si="17">SUM(G67:J67)</f>
+        <f t="shared" ref="T67:T73" si="21">SUM(G67:J67)</f>
         <v>1262</v>
       </c>
     </row>
-    <row r="68" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>41</v>
       </c>
@@ -2718,11 +2709,11 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="T68" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-6140</v>
       </c>
     </row>
-    <row r="69" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>70</v>
       </c>
@@ -2742,11 +2733,11 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="T69" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2779</v>
       </c>
     </row>
-    <row r="70" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>71</v>
       </c>
@@ -2766,11 +2757,11 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="T70" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-3509</v>
       </c>
     </row>
-    <row r="71" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>60</v>
       </c>
@@ -2790,11 +2781,11 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="T71" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-2248</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>69</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>-13414</v>
       </c>
     </row>
-    <row r="73" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>68</v>
       </c>
@@ -2838,11 +2829,11 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="T73" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>67</v>
       </c>
@@ -2866,22 +2857,22 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -2890,15 +2881,15 @@
         <v>15370</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:T78" si="18">+R60+R62</f>
+        <f t="shared" ref="R78:T78" si="22">+R60+R62</f>
         <v>11075</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11984</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15370</v>
       </c>
     </row>
